--- a/biology/Médecine/Jules_Grasset/Jules_Grasset.xlsx
+++ b/biology/Médecine/Jules_Grasset/Jules_Grasset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Grasset, pseudonyme de Michel Vayssairat[1], né le 1er octobre 1943 et mort le 17 février 2012, est un écrivain français, auteur de roman policier. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Grasset, pseudonyme de Michel Vayssairat, né le 1er octobre 1943 et mort le 17 février 2012, est un écrivain français, auteur de roman policier. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Vayssairat est un professeur des hôpitaux de Paris, spécialiste des maladies vasculaires[2], président de la Société internationale de pathologie vasculaire, expert dans différentes commissions officielles[3].
-En 2004, avec son premier roman, Les Violons du diable, signé Jules Grasset en hommage à Jules Maigret[1], il est lauréat du prix du Quai des Orfèvres 2005.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Vayssairat est un professeur des hôpitaux de Paris, spécialiste des maladies vasculaires, président de la Société internationale de pathologie vasculaire, expert dans différentes commissions officielles.
+En 2004, avec son premier roman, Les Violons du diable, signé Jules Grasset en hommage à Jules Maigret, il est lauréat du prix du Quai des Orfèvres 2005.
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Les Violons du diable, Éditions Fayard (2004)  (ISBN 2-213-61575-6), réédition France Loisirs (2005)  (ISBN 2-7441-8205-2)
-Minuit à Saint-Germain, Éditions Héloïse d'Ormesson (2008)  (ISBN 978-2-35087-084-7)
-Ouvrages de médecine
-Atlas pratique de capillaroscopie, Éditions de La Revue de médecine (1983)  (ISBN 2-903563-01-2) (coécrit avec Pascal Priollet)
-Microcirculation clinique, Éditions Masson (1996)  (ISBN 2-225-85179-4)</t>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Violons du diable, Éditions Fayard (2004)  (ISBN 2-213-61575-6), réédition France Loisirs (2005)  (ISBN 2-7441-8205-2)
+Minuit à Saint-Germain, Éditions Héloïse d'Ormesson (2008)  (ISBN 978-2-35087-084-7)</t>
         </is>
       </c>
     </row>
@@ -575,13 +591,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages de médecine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Atlas pratique de capillaroscopie, Éditions de La Revue de médecine (1983)  (ISBN 2-903563-01-2) (coécrit avec Pascal Priollet)
+Microcirculation clinique, Éditions Masson (1996)  (ISBN 2-225-85179-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jules_Grasset</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jules_Grasset</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix du Quai des Orfèvres 2005 pour Les Violons du diable[2]</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix du Quai des Orfèvres 2005 pour Les Violons du diable</t>
         </is>
       </c>
     </row>
